--- a/TTCSDL/DataExcel/DanhSachSinhVien.xlsx
+++ b/TTCSDL/DataExcel/DanhSachSinhVien.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">          PHÒNG ĐÀO TẠO</t>
   </si>
   <si>
-    <t>DANH SÁCH SINH VIÊN TOÀN TRƯỜNG</t>
+    <t>Danh sách sinh viên toàn trường</t>
   </si>
   <si>
     <t>STT</t>
@@ -141,12 +141,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,20 +199,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
